--- a/Calculs/PH4/DataBase_PH4_FileA_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_V6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{B6EAA742-0D34-4156-A07B-181580B7D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88F0776-B2F0-4117-A1A4-828FF196CB87}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{B6EAA742-0D34-4156-A07B-181580B7D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD27E926-9C6F-4923-83F2-2A759F9F2E6F}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38760" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="53">
   <si>
     <t>fck</t>
   </si>
@@ -113,6 +113,33 @@
     <t>Appui 2</t>
   </si>
   <si>
+    <t>Travée 3</t>
+  </si>
+  <si>
+    <t>Appui 3</t>
+  </si>
+  <si>
+    <t>Travée 4</t>
+  </si>
+  <si>
+    <t>Appui 4</t>
+  </si>
+  <si>
+    <t>Travée 5</t>
+  </si>
+  <si>
+    <t>Appui 5</t>
+  </si>
+  <si>
+    <t>Travée 6</t>
+  </si>
+  <si>
+    <t>File A - 2</t>
+  </si>
+  <si>
+    <t>File A - 3</t>
+  </si>
+  <si>
     <t>m_elu_1</t>
   </si>
   <si>
@@ -137,7 +164,22 @@
     <t xml:space="preserve">Vérinage </t>
   </si>
   <si>
+    <t>File A - 4</t>
+  </si>
+  <si>
+    <t>File A - 5</t>
+  </si>
+  <si>
+    <t>File A - 6</t>
+  </si>
+  <si>
+    <t>File A - 7</t>
+  </si>
+  <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Mg+g'_Elas</t>
@@ -147,6 +189,9 @@
   </si>
   <si>
     <t>Redis</t>
+  </si>
+  <si>
+    <t>File A - 0</t>
   </si>
 </sst>
 </file>
@@ -298,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -652,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -664,6 +715,10 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,16 +1109,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -1126,37 +1181,37 @@
         <v>17</v>
       </c>
       <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
         <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -1164,111 +1219,112 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>220000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>1576</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>1870</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0.26</v>
-      </c>
-      <c r="L2">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M2">
-        <v>5.6539999999999997E-4</v>
-      </c>
-      <c r="N2">
-        <v>0.04</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9">
-        <v>29.253119999999999</v>
-      </c>
-      <c r="W2" s="9">
-        <v>8.8857599999999994</v>
-      </c>
-      <c r="X2" s="7" t="str">
-        <f t="shared" ref="X2" si="0">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
-        <v>0</v>
+      <c r="M2" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Y2" s="2">
-        <v>1</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <v>1</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" ref="AB2:AB5" si="1">Y2*(1-AA2)</f>
-        <v>0.5</v>
+        <f>Y2*(1-AA2)</f>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" ref="AC2:AC5" si="2">Y2*AA2 + Z2</f>
-        <v>1.5</v>
+        <f>Y2*AA2 + Z2</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f t="shared" ref="AD2:AD5" si="3">1.35*Y2+1.5*Z2</f>
-        <v>2.85</v>
+        <f t="shared" ref="AD2" si="0">1.35*Y2+1.5*Z2</f>
+        <v>0</v>
       </c>
       <c r="AE2" s="8"/>
       <c r="AF2" s="2">
-        <f t="shared" ref="AF2:AF5" si="4">AB2+AC2</f>
-        <v>2</v>
+        <f>AB2+AC2</f>
+        <v>0</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A5" si="5">IF(B3=B2,A2,A2+1)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A67" si="1">IF(B3=B2,A2,A2+1)</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -1292,16 +1348,16 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L3">
         <v>2.2000000000000002</v>
       </c>
       <c r="M3">
-        <v>1.1286E-3</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="N3">
-        <v>9.9999999999999992E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1309,68 +1365,72 @@
       <c r="P3">
         <v>0</v>
       </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" s="9">
-        <v>80.574999999999989</v>
+        <v>22</v>
       </c>
       <c r="W3" s="9">
-        <v>24.474999999999998</v>
-      </c>
-      <c r="X3" s="7">
+        <v>9</v>
+      </c>
+      <c r="X3" s="7" t="str">
+        <f t="shared" ref="X3" si="2">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y5" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
-        <v>80.574999999999989</v>
+        <f t="shared" ref="Y3" si="3">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
+        <v>25.75</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z5" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
-        <v>24.474999999999998</v>
+        <f t="shared" ref="Z3" si="4">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA3" s="3">
         <v>0.5</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="1"/>
-        <v>40.287499999999994</v>
+        <f t="shared" ref="AB3" si="5">Y3*(1-AA3)</f>
+        <v>12.875</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" si="2"/>
-        <v>64.762499999999989</v>
+        <f>Y3*AA3 + Z3</f>
+        <v>23.074999999999999</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" si="3"/>
-        <v>145.48874999999998</v>
+        <f>1.35*Y3+1.5*Z3</f>
+        <v>50.0625</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="2">
-        <f t="shared" si="4"/>
-        <v>105.04999999999998</v>
+        <f>AB3+AC3</f>
+        <v>35.950000000000003</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -1394,86 +1454,89 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.23499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="L4">
         <v>2.2000000000000002</v>
       </c>
       <c r="M4">
-        <v>8.470000000000001E-4</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="N4">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
+        <f>PI()*14^2/4*0.000001</f>
+        <v>1.5393804002589983E-4</v>
+      </c>
+      <c r="Q4">
         <v>0.04</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
+      <c r="R4" s="12">
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>9.6000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
-        <v>30.75328</v>
+        <v>75</v>
       </c>
       <c r="W4" s="9">
-        <v>9.3414400000000004</v>
-      </c>
-      <c r="X4" s="7" t="str">
-        <f t="shared" ref="X3:X4" si="8">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="X4" s="11">
+        <v>-0.1</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="6"/>
-        <v>30.75328</v>
+        <f t="shared" ref="Y4:Y67" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
+        <v>67.5</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="7"/>
-        <v>9.3414400000000004</v>
+        <f t="shared" ref="Z4:Z67" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
+        <v>21.6</v>
       </c>
       <c r="AA4" s="3">
         <v>0.5</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="1"/>
-        <v>15.37664</v>
+        <f t="shared" ref="AB4:AB67" si="8">Y4*(1-AA4)</f>
+        <v>33.75</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="2"/>
-        <v>24.71808</v>
+        <f t="shared" ref="AC4:AC67" si="9">Y4*AA4 + Z4</f>
+        <v>55.35</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="3"/>
-        <v>55.529088000000002</v>
+        <f t="shared" ref="AD4:AD67" si="10">1.35*Y4+1.5*Z4</f>
+        <v>123.52500000000001</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="2">
-        <f t="shared" si="4"/>
-        <v>40.094720000000002</v>
+        <f t="shared" ref="AF4:AF67" si="11">AB4+AC4</f>
+        <v>89.1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -1497,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.22</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="L5">
         <v>2.2000000000000002</v>
       </c>
       <c r="M5">
-        <v>1.1286E-3</v>
+        <v>8.470000000000001E-4</v>
       </c>
       <c r="N5">
         <v>0.04</v>
@@ -1514,1130 +1577,6477 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" s="9">
-        <v>58.014000000000003</v>
+        <v>23.6</v>
       </c>
       <c r="W5" s="9">
-        <v>17.622000000000003</v>
-      </c>
-      <c r="X5" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f t="shared" ref="X5" si="12">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="6"/>
-        <v>58.014000000000003</v>
+        <v>33.35</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="7"/>
-        <v>17.622000000000003</v>
+        <v>12.900000000000002</v>
       </c>
       <c r="AA5" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="2">
-        <f t="shared" si="1"/>
-        <v>43.5105</v>
+        <f t="shared" si="8"/>
+        <v>16.675000000000001</v>
       </c>
       <c r="AC5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.125500000000002</v>
+        <f t="shared" si="9"/>
+        <v>29.575000000000003</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" si="3"/>
-        <v>104.75190000000002</v>
+        <f t="shared" si="10"/>
+        <v>64.372500000000002</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="2">
-        <f t="shared" si="4"/>
-        <v>75.635999999999996</v>
+        <f t="shared" si="11"/>
+        <v>46.25</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="8"/>
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H6">
+        <v>1576</v>
+      </c>
+      <c r="I6">
+        <v>1870</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.22</v>
+      </c>
+      <c r="L6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M6">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N6">
+        <v>0.04</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>60</v>
+      </c>
+      <c r="W6" s="9">
+        <v>19</v>
+      </c>
+      <c r="X6" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="7"/>
+        <v>15.2</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="9"/>
+        <v>27.2</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="10"/>
+        <v>87.600000000000009</v>
+      </c>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="2">
+        <f t="shared" si="11"/>
+        <v>63.2</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="8"/>
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>500</v>
+      </c>
+      <c r="G7" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="8"/>
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4">
+        <v>500</v>
+      </c>
+      <c r="G8" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="2"/>
+      <c r="AF8" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="8"/>
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H9">
+        <v>1576</v>
+      </c>
+      <c r="I9">
+        <v>1870</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.26</v>
+      </c>
+      <c r="L9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M9">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N9">
+        <v>0.04</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="9">
+        <v>22.3</v>
+      </c>
+      <c r="W9" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="6"/>
+        <v>31.55</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="7"/>
+        <v>13.4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="8"/>
+        <v>15.775</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="9"/>
+        <v>29.175000000000001</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="10"/>
+        <v>62.692500000000003</v>
+      </c>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="2"/>
+      <c r="AF9" s="2">
+        <f t="shared" si="11"/>
+        <v>44.95</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="8"/>
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H10">
+        <v>1576</v>
+      </c>
+      <c r="I10">
+        <v>1870</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M10">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N10">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="14">
+        <f>PI()*14^2/4*0.000001</f>
+        <v>1.5393804002589983E-4</v>
+      </c>
+      <c r="Q10">
+        <v>0.04</v>
+      </c>
+      <c r="R10" s="12">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>92.5</v>
+      </c>
+      <c r="W10" s="9">
+        <v>31</v>
+      </c>
+      <c r="X10" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C10)),V10+X10*V10,IF(A9&lt;A10,V10-X11*V11/2,IF(A10&lt;A11,V10-(X9*V9)/2,V10-(X11*V11+X9*V9)/2))),0)</f>
+        <v>74</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="7"/>
+        <v>24.8</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="9"/>
+        <v>61.8</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="10"/>
+        <v>137.10000000000002</v>
+      </c>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="2"/>
+      <c r="AF10" s="2">
+        <f>AB10+AC10</f>
+        <v>98.8</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="8"/>
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H11">
+        <v>1576</v>
+      </c>
+      <c r="I11">
+        <v>1870</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N11">
+        <v>0.04</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V11" s="9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="W11" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="X11" s="7" t="str">
+        <f t="shared" ref="X11" si="13">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
+        <v>51.112500000000004</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="7"/>
+        <v>19.635000000000002</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="8"/>
+        <v>25.556250000000002</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="9"/>
+        <v>45.191250000000004</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="10"/>
+        <v>98.454375000000013</v>
+      </c>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="2"/>
+      <c r="AF11" s="2">
+        <f t="shared" si="11"/>
+        <v>70.747500000000002</v>
+      </c>
       <c r="AP11" s="2"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="8"/>
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H12">
+        <v>1576</v>
+      </c>
+      <c r="I12">
+        <v>1870</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.22</v>
+      </c>
+      <c r="L12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12">
+        <v>1.3297999999999999E-3</v>
+      </c>
+      <c r="N12">
+        <v>0.04</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V12" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="W12" s="9">
+        <v>29</v>
+      </c>
+      <c r="X12" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="6"/>
+        <v>75.174999999999997</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="7"/>
+        <v>28.13</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="8"/>
+        <v>56.381249999999994</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="9"/>
+        <v>46.923749999999998</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="10"/>
+        <v>143.68125000000001</v>
+      </c>
       <c r="AE12" s="8"/>
-      <c r="AF12" s="2"/>
+      <c r="AF12" s="2">
+        <f t="shared" si="11"/>
+        <v>103.30499999999999</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="8"/>
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H13">
+        <v>1576</v>
+      </c>
+      <c r="I13">
+        <v>1870</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M13">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N13">
+        <v>0.04</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" s="9">
+        <v>4</v>
+      </c>
+      <c r="W13" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="X13" s="7" t="str">
+        <f t="shared" ref="X13" si="14">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="6"/>
+        <v>5.1624999999999996</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="8"/>
+        <v>5.1624999999999996</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="9"/>
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="10"/>
+        <v>17.371874999999999</v>
+      </c>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="2"/>
+      <c r="AF13" s="2">
+        <f t="shared" si="11"/>
+        <v>12.0975</v>
+      </c>
       <c r="AP13" s="2"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="8"/>
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H14">
+        <v>1576</v>
+      </c>
+      <c r="I14">
+        <v>1870</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.25</v>
+      </c>
+      <c r="L14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M14">
+        <v>1.3297999999999999E-3</v>
+      </c>
+      <c r="N14">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>20</v>
+      </c>
+      <c r="W14" s="9">
+        <v>13</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="10"/>
+        <v>46.5</v>
+      </c>
       <c r="AE14" s="8"/>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="2">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="8"/>
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H15">
+        <v>1576</v>
+      </c>
+      <c r="I15">
+        <v>1870</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M15">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N15">
+        <v>0.04</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>5</v>
+      </c>
+      <c r="W15" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="X15" s="7" t="str">
+        <f t="shared" ref="X15" si="15">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="7"/>
+        <v>5.9</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="10"/>
+        <v>13.524375000000003</v>
+      </c>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="2">
+        <f t="shared" si="11"/>
+        <v>9.3625000000000007</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="G16" s="1"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="8"/>
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H16">
+        <v>1576</v>
+      </c>
+      <c r="I16">
+        <v>1870</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.22</v>
+      </c>
+      <c r="L16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M16">
+        <v>1.3297999999999999E-3</v>
+      </c>
+      <c r="N16">
+        <v>0.04</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" ref="U16:U18" si="16">5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V16" s="9">
+        <v>61.5</v>
+      </c>
+      <c r="W16" s="9">
+        <v>24</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="6"/>
+        <v>64.575000000000003</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="7"/>
+        <v>25.2</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="8"/>
+        <v>64.575000000000003</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="9"/>
+        <v>25.2</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="10"/>
+        <v>124.97625000000001</v>
+      </c>
       <c r="AE16" s="8"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2">
+        <f t="shared" si="11"/>
+        <v>89.775000000000006</v>
+      </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G17" s="1"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="8"/>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H17">
+        <v>1576</v>
+      </c>
+      <c r="I17">
+        <v>1870</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M17">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N17">
+        <v>0.04</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="V17" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="W17" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="X17" s="7" t="str">
+        <f t="shared" ref="X17" si="17">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="6"/>
+        <v>28.4375</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="7"/>
+        <v>13.984999999999999</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="8"/>
+        <v>28.4375</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="9"/>
+        <v>13.984999999999999</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="10"/>
+        <v>59.368124999999999</v>
+      </c>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="2">
+        <f t="shared" si="11"/>
+        <v>42.422499999999999</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G18" s="1"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="8"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H18">
+        <v>1576</v>
+      </c>
+      <c r="I18">
+        <v>1870</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.25</v>
+      </c>
+      <c r="L18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18">
+        <v>1.89E-3</v>
+      </c>
+      <c r="N18">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="V18" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="W18" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="6"/>
+        <v>92.75</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="7"/>
+        <v>32.33</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="8"/>
+        <v>92.75</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="9"/>
+        <v>32.33</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="10"/>
+        <v>173.70750000000001</v>
+      </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="2"/>
+      <c r="AF18" s="2">
+        <f t="shared" si="11"/>
+        <v>125.08</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="8"/>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H19">
+        <v>1576</v>
+      </c>
+      <c r="I19">
+        <v>1870</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.26</v>
+      </c>
+      <c r="L19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M19">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N19">
+        <v>0.04</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19" s="9">
+        <v>25</v>
+      </c>
+      <c r="W19" s="9">
+        <v>10</v>
+      </c>
+      <c r="X19" s="7" t="str">
+        <f t="shared" ref="X19" si="18">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="6"/>
+        <v>22.375</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="7"/>
+        <v>9.0850000000000009</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="8"/>
+        <v>22.375</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="9"/>
+        <v>9.0850000000000009</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="10"/>
+        <v>43.833750000000002</v>
+      </c>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="2">
+        <f t="shared" si="11"/>
+        <v>31.46</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G20" s="1"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="8"/>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4">
+        <v>500</v>
+      </c>
+      <c r="G20" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE20" s="8"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="8"/>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+      <c r="G21" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H21">
+        <v>1576</v>
+      </c>
+      <c r="I21">
+        <v>1870</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.26</v>
+      </c>
+      <c r="L21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M21">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N21">
+        <v>0.04</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W21" s="9">
+        <v>10</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="6"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="8"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="9"/>
+        <v>20.2</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="10"/>
+        <v>42.54</v>
+      </c>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="2"/>
+      <c r="AF21" s="2">
+        <f t="shared" si="11"/>
+        <v>30.4</v>
+      </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G22" s="1"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="8"/>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+      <c r="G22" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H22">
+        <v>1576</v>
+      </c>
+      <c r="I22">
+        <v>1870</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.25</v>
+      </c>
+      <c r="L22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M22">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N22">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12">
+        <f>PI()*16^2/4*0.000001</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="Q22">
+        <v>0.04</v>
+      </c>
+      <c r="R22" s="12">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="W22" s="9">
+        <v>33</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="6"/>
+        <v>97.5</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="8"/>
+        <v>48.75</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="9"/>
+        <v>81.75</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="10"/>
+        <v>181.125</v>
+      </c>
       <c r="AE22" s="8"/>
-      <c r="AF22" s="2"/>
+      <c r="AF22" s="2">
+        <f t="shared" si="11"/>
+        <v>130.5</v>
+      </c>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G23" s="1"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="8"/>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
+      <c r="G23" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H23">
+        <v>1576</v>
+      </c>
+      <c r="I23">
+        <v>1870</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M23">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N23">
+        <v>0.04</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V23" s="9">
+        <v>43.2</v>
+      </c>
+      <c r="W23" s="9">
+        <v>16</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="6"/>
+        <v>50.95</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="7"/>
+        <v>18.95</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="8"/>
+        <v>25.475000000000001</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="9"/>
+        <v>44.424999999999997</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="10"/>
+        <v>97.20750000000001</v>
+      </c>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="2"/>
+      <c r="AF23" s="2">
+        <f t="shared" si="11"/>
+        <v>69.900000000000006</v>
+      </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G24" s="1"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="8"/>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H24">
+        <v>1576</v>
+      </c>
+      <c r="I24">
+        <v>1870</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.22</v>
+      </c>
+      <c r="L24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M24">
+        <v>1.0482E-3</v>
+      </c>
+      <c r="N24">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V24" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="W24" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="X24" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="7"/>
+        <v>23.6</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="8"/>
+        <v>46.5</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="9"/>
+        <v>39.1</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="10"/>
+        <v>119.10000000000001</v>
+      </c>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="2"/>
+      <c r="AF24" s="2">
+        <f t="shared" si="11"/>
+        <v>85.6</v>
+      </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G25" s="1"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="8"/>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>500</v>
+      </c>
+      <c r="G25" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H25">
+        <v>1576</v>
+      </c>
+      <c r="I25">
+        <v>1870</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M25">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N25">
+        <v>0.04</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25" s="9">
+        <v>3</v>
+      </c>
+      <c r="W25" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="6"/>
+        <v>10.75</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="7"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="8"/>
+        <v>10.75</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="9"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="10"/>
+        <v>28.6875</v>
+      </c>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="2"/>
+      <c r="AF25" s="2">
+        <f t="shared" si="11"/>
+        <v>20.2</v>
+      </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G26" s="1"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="8"/>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H26">
+        <v>1576</v>
+      </c>
+      <c r="I26">
+        <v>1870</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.25</v>
+      </c>
+      <c r="L26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M26">
+        <v>9.3510000000000012E-4</v>
+      </c>
+      <c r="N26">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="12">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V26" s="9">
+        <v>15</v>
+      </c>
+      <c r="W26" s="9">
+        <v>13</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="10"/>
+        <v>39.75</v>
+      </c>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="2"/>
+      <c r="AF26" s="2">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G27" s="1"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="8"/>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H27">
+        <v>1576</v>
+      </c>
+      <c r="I27">
+        <v>1870</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M27">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N27">
+        <v>0.04</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27" s="9">
+        <v>5</v>
+      </c>
+      <c r="W27" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="6"/>
+        <v>14.6875</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="7"/>
+        <v>10.125</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="8"/>
+        <v>14.6875</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="9"/>
+        <v>10.125</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="10"/>
+        <v>35.015625</v>
+      </c>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="2"/>
+      <c r="AF27" s="2">
+        <f t="shared" si="11"/>
+        <v>24.8125</v>
+      </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G28" s="1"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="8"/>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H28">
+        <v>1576</v>
+      </c>
+      <c r="I28">
+        <v>1870</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.22</v>
+      </c>
+      <c r="L28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M28">
+        <v>1.3297999999999999E-3</v>
+      </c>
+      <c r="N28">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" s="12">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="V28" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="W28" s="9">
+        <v>29</v>
+      </c>
+      <c r="X28" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="6"/>
+        <v>58.125</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="7"/>
+        <v>21.75</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="8"/>
+        <v>58.125</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="9"/>
+        <v>21.75</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="10"/>
+        <v>111.09375</v>
+      </c>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="2"/>
+      <c r="AF28" s="2">
+        <f t="shared" si="11"/>
+        <v>79.875</v>
+      </c>
     </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G29" s="1"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="8"/>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H29">
+        <v>1576</v>
+      </c>
+      <c r="I29">
+        <v>1870</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M29">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N29">
+        <v>0.04</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <f>10-2</f>
+        <v>8</v>
+      </c>
+      <c r="V29" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="W29" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="6"/>
+        <v>51.1875</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="7"/>
+        <v>19.125</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="8"/>
+        <v>51.1875</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="9"/>
+        <v>19.125</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="10"/>
+        <v>97.790625000000006</v>
+      </c>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="2"/>
+      <c r="AF29" s="2">
+        <f t="shared" si="11"/>
+        <v>70.3125</v>
+      </c>
     </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="G30" s="1"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="8"/>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>500</v>
+      </c>
+      <c r="G30" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H30">
+        <v>1576</v>
+      </c>
+      <c r="I30">
+        <v>1870</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.25</v>
+      </c>
+      <c r="L30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M30">
+        <v>1.89E-3</v>
+      </c>
+      <c r="N30">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="V30" s="9">
+        <v>95</v>
+      </c>
+      <c r="W30" s="9">
+        <v>31.5</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="7"/>
+        <v>31.5</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="9"/>
+        <v>31.5</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="10"/>
+        <v>175.5</v>
+      </c>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="2"/>
+      <c r="AF30" s="2">
+        <f t="shared" si="11"/>
+        <v>126.5</v>
+      </c>
     </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="8"/>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H31">
+        <v>1576</v>
+      </c>
+      <c r="I31">
+        <v>1870</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.26</v>
+      </c>
+      <c r="L31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N31">
+        <v>0.04</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31" s="9">
+        <v>21</v>
+      </c>
+      <c r="W31" s="9">
+        <v>10</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="10"/>
+        <v>43.35</v>
+      </c>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="2"/>
+      <c r="AF31" s="2">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="4">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4">
+        <v>500</v>
+      </c>
+      <c r="G32" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="8"/>
+      <c r="X32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="2"/>
+      <c r="AF32" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G33" s="1"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="8"/>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H33">
+        <v>1576</v>
+      </c>
+      <c r="I33">
+        <v>1870</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.26</v>
+      </c>
+      <c r="L33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M33">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N33">
+        <v>0.04</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33" s="9">
+        <v>19</v>
+      </c>
+      <c r="W33" s="9">
+        <v>5</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="6"/>
+        <v>21.625</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="7"/>
+        <v>5.75</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="8"/>
+        <v>10.8125</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="9"/>
+        <v>16.5625</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="10"/>
+        <v>37.818750000000001</v>
+      </c>
       <c r="AE33" s="8"/>
-      <c r="AF33" s="2"/>
+      <c r="AF33" s="2">
+        <f t="shared" si="11"/>
+        <v>27.375</v>
+      </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G34" s="1"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="8"/>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+      <c r="G34" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H34">
+        <v>1576</v>
+      </c>
+      <c r="I34">
+        <v>1870</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.25</v>
+      </c>
+      <c r="L34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M34">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N34">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="12">
+        <f>PI()*16^2/4*0.000001</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="Q34">
+        <v>0.04</v>
+      </c>
+      <c r="R34" s="12">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>105</v>
+      </c>
+      <c r="W34" s="9">
+        <v>30</v>
+      </c>
+      <c r="X34" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="6"/>
+        <v>99.75</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="7"/>
+        <v>28.5</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="8"/>
+        <v>49.875</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="9"/>
+        <v>78.375</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="10"/>
+        <v>177.41250000000002</v>
+      </c>
       <c r="AE34" s="8"/>
-      <c r="AF34" s="2"/>
+      <c r="AF34" s="2">
+        <f t="shared" si="11"/>
+        <v>128.25</v>
+      </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G35" s="1"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="8"/>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H35">
+        <v>1576</v>
+      </c>
+      <c r="I35">
+        <v>1870</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M35">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N35">
+        <v>0.04</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V35" s="9">
+        <v>47</v>
+      </c>
+      <c r="W35" s="9">
+        <v>17</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="6"/>
+        <v>51.95</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="7"/>
+        <v>18.574999999999999</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="8"/>
+        <v>25.975000000000001</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="9"/>
+        <v>44.55</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="10"/>
+        <v>97.995000000000005</v>
+      </c>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="2"/>
+      <c r="AF35" s="2">
+        <f t="shared" si="11"/>
+        <v>70.525000000000006</v>
+      </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G36" s="1"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="8"/>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H36">
+        <v>1576</v>
+      </c>
+      <c r="I36">
+        <v>1870</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.22</v>
+      </c>
+      <c r="L36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M36">
+        <v>1.0482E-3</v>
+      </c>
+      <c r="N36">
+        <v>0.04</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" s="12">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V36" s="9">
+        <v>93</v>
+      </c>
+      <c r="W36" s="9">
+        <v>33</v>
+      </c>
+      <c r="X36" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="6"/>
+        <v>88.35</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="7"/>
+        <v>31.35</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="8"/>
+        <v>66.262499999999989</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="9"/>
+        <v>53.4375</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="10"/>
+        <v>166.29750000000001</v>
+      </c>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="2"/>
+      <c r="AF36" s="2">
+        <f t="shared" si="11"/>
+        <v>119.69999999999999</v>
+      </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G37" s="1"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="8"/>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H37">
+        <v>1576</v>
+      </c>
+      <c r="I37">
+        <v>1870</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M37">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N37">
+        <v>0.04</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V37" s="9">
+        <v>2</v>
+      </c>
+      <c r="W37" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y37" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="7"/>
+        <v>7.125</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="8"/>
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="9"/>
+        <v>7.125</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="10"/>
+        <v>16.526250000000001</v>
+      </c>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="2"/>
+      <c r="AF37" s="2">
+        <f t="shared" si="11"/>
+        <v>11.45</v>
+      </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G38" s="1"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="8"/>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H38">
+        <v>1576</v>
+      </c>
+      <c r="I38">
+        <v>1870</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.25</v>
+      </c>
+      <c r="L38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M38">
+        <v>9.3510000000000012E-4</v>
+      </c>
+      <c r="N38">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9">
+        <v>25</v>
+      </c>
+      <c r="W38" s="9">
+        <v>15</v>
+      </c>
+      <c r="X38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AD38" s="8">
+        <f t="shared" si="10"/>
+        <v>56.25</v>
+      </c>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="2"/>
+      <c r="AF38" s="2">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G39" s="1"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="8"/>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>500</v>
+      </c>
+      <c r="G39" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H39">
+        <v>1576</v>
+      </c>
+      <c r="I39">
+        <v>1870</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M39">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N39">
+        <v>0.04</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V39" s="9">
+        <v>4</v>
+      </c>
+      <c r="W39" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="9"/>
+        <v>6.5</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="10"/>
+        <v>15.15</v>
+      </c>
       <c r="AE39" s="8"/>
-      <c r="AF39" s="2"/>
+      <c r="AF39" s="2">
+        <f t="shared" si="11"/>
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G40" s="1"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="8"/>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H40">
+        <v>1576</v>
+      </c>
+      <c r="I40">
+        <v>1870</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0.22</v>
+      </c>
+      <c r="L40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M40">
+        <v>1.0482E-3</v>
+      </c>
+      <c r="N40">
+        <v>0.04</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" s="12">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V40" s="9">
+        <v>92.5</v>
+      </c>
+      <c r="W40" s="9">
+        <v>31</v>
+      </c>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="8"/>
+        <v>92.5</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="10"/>
+        <v>171.375</v>
+      </c>
       <c r="AE40" s="8"/>
-      <c r="AF40" s="2"/>
+      <c r="AF40" s="2">
+        <f t="shared" si="11"/>
+        <v>123.5</v>
+      </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G41" s="1"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="8"/>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="G41" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H41">
+        <v>1576</v>
+      </c>
+      <c r="I41">
+        <v>1870</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M41">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N41">
+        <v>0.04</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <f>7+1</f>
+        <v>8</v>
+      </c>
+      <c r="V41" s="9">
+        <v>44</v>
+      </c>
+      <c r="W41" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y41" s="2">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="7"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="9"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="10"/>
+        <v>83.550000000000011</v>
+      </c>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="2"/>
+      <c r="AF41" s="2">
+        <f t="shared" si="11"/>
+        <v>60.1</v>
+      </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G42" s="1"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="8"/>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H42">
+        <v>1576</v>
+      </c>
+      <c r="I42">
+        <v>1870</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.25</v>
+      </c>
+      <c r="L42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M42">
+        <v>1.89E-3</v>
+      </c>
+      <c r="N42">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" s="12">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="V42" s="9">
+        <v>100</v>
+      </c>
+      <c r="W42" s="9">
+        <v>33.5</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="9"/>
+        <v>33.5</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="10"/>
+        <v>185.25</v>
+      </c>
       <c r="AE42" s="8"/>
-      <c r="AF42" s="2"/>
+      <c r="AF42" s="2">
+        <f t="shared" si="11"/>
+        <v>133.5</v>
+      </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G43" s="1"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="8"/>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H43">
+        <v>1576</v>
+      </c>
+      <c r="I43">
+        <v>1870</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.26</v>
+      </c>
+      <c r="L43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M43">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N43">
+        <v>0.04</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43" s="9">
+        <v>20</v>
+      </c>
+      <c r="W43" s="9">
+        <v>10</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
       <c r="AE43" s="8"/>
-      <c r="AF43" s="2"/>
+      <c r="AF43" s="2">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="4">
+        <v>500</v>
+      </c>
+      <c r="G44" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L44" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44" s="4">
+        <v>0</v>
+      </c>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="8"/>
+      <c r="X44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y44" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE44" s="8"/>
-      <c r="AF44" s="2"/>
+      <c r="AF44" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G45" s="1"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="8"/>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H45">
+        <v>1576</v>
+      </c>
+      <c r="I45">
+        <v>1870</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.26</v>
+      </c>
+      <c r="L45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M45">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N45">
+        <v>0.04</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45" s="9">
+        <v>19</v>
+      </c>
+      <c r="W45" s="9">
+        <v>5</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y45" s="2">
+        <f t="shared" si="6"/>
+        <v>21.6875</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="7"/>
+        <v>5.8125</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" si="8"/>
+        <v>10.84375</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" si="9"/>
+        <v>16.65625</v>
+      </c>
+      <c r="AD45" s="8">
+        <f t="shared" si="10"/>
+        <v>37.996875000000003</v>
+      </c>
       <c r="AE45" s="8"/>
-      <c r="AF45" s="2"/>
+      <c r="AF45" s="2">
+        <f t="shared" si="11"/>
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G46" s="1"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="8"/>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H46">
+        <v>1576</v>
+      </c>
+      <c r="I46">
+        <v>1870</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.25</v>
+      </c>
+      <c r="L46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M46">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N46">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12">
+        <f>PI()*16^2/4*0.000001</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="Q46">
+        <v>0.04</v>
+      </c>
+      <c r="R46" s="12">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>107.5</v>
+      </c>
+      <c r="W46" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="X46" s="11">
+        <v>-0.05</v>
+      </c>
+      <c r="Y46" s="2">
+        <f t="shared" si="6"/>
+        <v>102.125</v>
+      </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="7"/>
+        <v>30.875</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" si="8"/>
+        <v>51.0625</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" si="9"/>
+        <v>81.9375</v>
+      </c>
+      <c r="AD46" s="8">
+        <f t="shared" si="10"/>
+        <v>184.18125000000001</v>
+      </c>
       <c r="AE46" s="8"/>
-      <c r="AF46" s="2"/>
+      <c r="AF46" s="2">
+        <f t="shared" si="11"/>
+        <v>133</v>
+      </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G47" s="1"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="8"/>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H47">
+        <v>1576</v>
+      </c>
+      <c r="I47">
+        <v>1870</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M47">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N47">
+        <v>0.04</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V47" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="W47" s="9">
+        <v>18</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y47" s="2">
+        <f t="shared" si="6"/>
+        <v>55.5625</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="7"/>
+        <v>19.662500000000001</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB47" s="2">
+        <f t="shared" si="8"/>
+        <v>27.78125</v>
+      </c>
+      <c r="AC47" s="2">
+        <f t="shared" si="9"/>
+        <v>47.443750000000001</v>
+      </c>
+      <c r="AD47" s="8">
+        <f t="shared" si="10"/>
+        <v>104.50312500000001</v>
+      </c>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="2"/>
+      <c r="AF47" s="2">
+        <f t="shared" si="11"/>
+        <v>75.224999999999994</v>
+      </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G48" s="1"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="8"/>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H48">
+        <v>1576</v>
+      </c>
+      <c r="I48">
+        <v>1870</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.22</v>
+      </c>
+      <c r="L48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M48">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="N48">
+        <v>0.04</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" s="12">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V48" s="9">
+        <v>95</v>
+      </c>
+      <c r="W48" s="9">
+        <v>34</v>
+      </c>
+      <c r="X48" s="11">
+        <v>-0.05</v>
+      </c>
+      <c r="Y48" s="2">
+        <f t="shared" si="6"/>
+        <v>90.25</v>
+      </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="7"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB48" s="2">
+        <f t="shared" si="8"/>
+        <v>67.6875</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="9"/>
+        <v>54.862499999999997</v>
+      </c>
+      <c r="AD48" s="8">
+        <f t="shared" si="10"/>
+        <v>170.28749999999999</v>
+      </c>
       <c r="AE48" s="8"/>
-      <c r="AF48" s="2"/>
+      <c r="AF48" s="2">
+        <f t="shared" si="11"/>
+        <v>122.55</v>
+      </c>
     </row>
-    <row r="49" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G49" s="1"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="8"/>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>500</v>
+      </c>
+      <c r="G49" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H49">
+        <v>1576</v>
+      </c>
+      <c r="I49">
+        <v>1870</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M49">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N49">
+        <v>0.04</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>5</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y49" s="2">
+        <f t="shared" si="6"/>
+        <v>2.375</v>
+      </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="7"/>
+        <v>5.85</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <f t="shared" si="8"/>
+        <v>2.375</v>
+      </c>
+      <c r="AC49" s="2">
+        <f t="shared" si="9"/>
+        <v>5.85</v>
+      </c>
+      <c r="AD49" s="8">
+        <f t="shared" si="10"/>
+        <v>11.981249999999999</v>
+      </c>
       <c r="AE49" s="8"/>
-      <c r="AF49" s="2"/>
+      <c r="AF49" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2249999999999996</v>
+      </c>
     </row>
-    <row r="50" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G50" s="1"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="8"/>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H50">
+        <v>1576</v>
+      </c>
+      <c r="I50">
+        <v>1870</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0.25</v>
+      </c>
+      <c r="L50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M50">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="N50">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>15</v>
+      </c>
+      <c r="W50" s="9">
+        <v>13</v>
+      </c>
+      <c r="X50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AD50" s="8">
+        <f t="shared" si="10"/>
+        <v>39.75</v>
+      </c>
       <c r="AE50" s="8"/>
-      <c r="AF50" s="2"/>
+      <c r="AF50" s="2">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="51" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G51" s="1"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="8"/>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>500</v>
+      </c>
+      <c r="G51" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H51">
+        <v>1576</v>
+      </c>
+      <c r="I51">
+        <v>1870</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M51">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N51">
+        <v>0.04</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V51" s="9">
+        <v>5</v>
+      </c>
+      <c r="W51" s="9">
+        <v>6</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AD51" s="8">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
       <c r="AE51" s="8"/>
-      <c r="AF51" s="2"/>
+      <c r="AF51" s="2">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="52" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G52" s="1"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="8"/>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>500</v>
+      </c>
+      <c r="G52" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H52">
+        <v>1576</v>
+      </c>
+      <c r="I52">
+        <v>1870</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0.22</v>
+      </c>
+      <c r="L52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M52">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="N52">
+        <v>0.04</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52" s="9">
+        <v>82.5</v>
+      </c>
+      <c r="W52" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="X52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <f t="shared" si="6"/>
+        <v>82.5</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="7"/>
+        <v>28.5</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <f t="shared" si="8"/>
+        <v>82.5</v>
+      </c>
+      <c r="AC52" s="2">
+        <f t="shared" si="9"/>
+        <v>28.5</v>
+      </c>
+      <c r="AD52" s="8">
+        <f t="shared" si="10"/>
+        <v>154.125</v>
+      </c>
       <c r="AE52" s="8"/>
-      <c r="AF52" s="2"/>
+      <c r="AF52" s="2">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
     </row>
-    <row r="53" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G53" s="1"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="8"/>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>500</v>
+      </c>
+      <c r="G53" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H53">
+        <v>1576</v>
+      </c>
+      <c r="I53">
+        <v>1870</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M53">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N53">
+        <v>0.04</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53" s="12">
+        <f>7+1</f>
+        <v>8</v>
+      </c>
+      <c r="V53" s="9">
+        <v>43</v>
+      </c>
+      <c r="W53" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="7"/>
+        <v>15.4</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="AC53" s="2">
+        <f t="shared" si="9"/>
+        <v>15.4</v>
+      </c>
+      <c r="AD53" s="8">
+        <f t="shared" si="10"/>
+        <v>81.150000000000006</v>
+      </c>
       <c r="AE53" s="8"/>
-      <c r="AF53" s="2"/>
+      <c r="AF53" s="2">
+        <f t="shared" si="11"/>
+        <v>58.4</v>
+      </c>
     </row>
-    <row r="54" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G54" s="1"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="8"/>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>500</v>
+      </c>
+      <c r="G54" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H54">
+        <v>1576</v>
+      </c>
+      <c r="I54">
+        <v>1870</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0.25</v>
+      </c>
+      <c r="L54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M54">
+        <v>2E-3</v>
+      </c>
+      <c r="N54">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54" s="12">
+        <f>5+1</f>
+        <v>6</v>
+      </c>
+      <c r="V54" s="9">
+        <v>92.5</v>
+      </c>
+      <c r="W54" s="9">
+        <v>31</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <f t="shared" si="8"/>
+        <v>92.5</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="AD54" s="8">
+        <f t="shared" si="10"/>
+        <v>171.375</v>
+      </c>
       <c r="AE54" s="8"/>
-      <c r="AF54" s="2"/>
+      <c r="AF54" s="2">
+        <f t="shared" si="11"/>
+        <v>123.5</v>
+      </c>
     </row>
-    <row r="55" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G55" s="1"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="8"/>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H55">
+        <v>1576</v>
+      </c>
+      <c r="I55">
+        <v>1870</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0.26</v>
+      </c>
+      <c r="L55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M55">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N55">
+        <v>0.04</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55" s="9">
+        <v>16</v>
+      </c>
+      <c r="W55" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y55" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Z55" s="2">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AD55" s="8">
+        <f t="shared" si="10"/>
+        <v>33.9</v>
+      </c>
       <c r="AE55" s="8"/>
-      <c r="AF55" s="2"/>
+      <c r="AF55" s="2">
+        <f t="shared" si="11"/>
+        <v>24.2</v>
+      </c>
     </row>
-    <row r="56" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="8"/>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="4">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="4">
+        <v>500</v>
+      </c>
+      <c r="G56" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <v>0</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0</v>
+      </c>
+      <c r="V56" s="6">
+        <v>0</v>
+      </c>
+      <c r="W56" s="6">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE56" s="8"/>
-      <c r="AF56" s="2"/>
+      <c r="AF56" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G57" s="1"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="8"/>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>500</v>
+      </c>
+      <c r="G57" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H57">
+        <v>1576</v>
+      </c>
+      <c r="I57">
+        <v>1870</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0.26</v>
+      </c>
+      <c r="L57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M57">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N57">
+        <v>0.04</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" s="12">
+        <f t="shared" ref="U57" si="19">5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V57" s="9">
+        <v>22</v>
+      </c>
+      <c r="W57" s="9">
+        <v>10</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="AD57" s="8">
+        <f t="shared" si="10"/>
+        <v>44.7</v>
+      </c>
       <c r="AE57" s="8"/>
-      <c r="AF57" s="2"/>
+      <c r="AF57" s="2">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="58" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G58" s="1"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="8"/>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>500</v>
+      </c>
+      <c r="G58" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H58">
+        <v>1576</v>
+      </c>
+      <c r="I58">
+        <v>1870</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0.25</v>
+      </c>
+      <c r="L58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M58">
+        <v>1.8979999999999999E-3</v>
+      </c>
+      <c r="N58">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" s="14">
+        <f>PI()*14^2/4*0.000001</f>
+        <v>1.5393804002589983E-4</v>
+      </c>
+      <c r="Q58">
+        <v>0.04</v>
+      </c>
+      <c r="R58" s="12">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9">
+        <v>90</v>
+      </c>
+      <c r="W58" s="9">
+        <v>30</v>
+      </c>
+      <c r="X58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="Z58" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AD58" s="8">
+        <f t="shared" si="10"/>
+        <v>166.5</v>
+      </c>
       <c r="AE58" s="8"/>
-      <c r="AF58" s="2"/>
+      <c r="AF58" s="2">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
     </row>
-    <row r="59" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G59" s="1"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="8"/>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>500</v>
+      </c>
+      <c r="G59" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H59">
+        <v>1576</v>
+      </c>
+      <c r="I59">
+        <v>1870</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M59">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N59">
+        <v>0.04</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" s="12">
+        <f t="shared" ref="U59" si="20">5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V59" s="9">
+        <v>39</v>
+      </c>
+      <c r="W59" s="9">
+        <v>14</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Z59" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="8"/>
+        <v>19.5</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="9"/>
+        <v>33.5</v>
+      </c>
+      <c r="AD59" s="8">
+        <f t="shared" si="10"/>
+        <v>73.650000000000006</v>
+      </c>
       <c r="AE59" s="8"/>
-      <c r="AF59" s="2"/>
+      <c r="AF59" s="2">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
     </row>
-    <row r="60" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="8"/>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="4">
+        <v>25</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="4">
+        <v>500</v>
+      </c>
+      <c r="G60" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L60" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O60" s="4">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0</v>
+      </c>
+      <c r="T60" s="4">
+        <v>0</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="V60" s="6">
+        <v>0</v>
+      </c>
+      <c r="W60" s="6">
+        <v>0</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE60" s="8"/>
-      <c r="AF60" s="2"/>
+      <c r="AF60" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G61" s="1"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="8"/>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>500</v>
+      </c>
+      <c r="G61" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H61">
+        <v>1576</v>
+      </c>
+      <c r="I61">
+        <v>1870</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M61">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="N61">
+        <v>0.04</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" s="12">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V61" s="9">
+        <v>26.3</v>
+      </c>
+      <c r="W61" s="9">
+        <v>9</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="6"/>
+        <v>21.4</v>
+      </c>
+      <c r="Z61" s="2">
+        <f t="shared" si="7"/>
+        <v>7.45</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="8"/>
+        <v>21.4</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="9"/>
+        <v>7.45</v>
+      </c>
+      <c r="AD61" s="8">
+        <f t="shared" si="10"/>
+        <v>40.064999999999998</v>
+      </c>
       <c r="AE61" s="8"/>
-      <c r="AF61" s="2"/>
+      <c r="AF61" s="2">
+        <f t="shared" si="11"/>
+        <v>28.849999999999998</v>
+      </c>
     </row>
-    <row r="62" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G62" s="1"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="8"/>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H62">
+        <v>1576</v>
+      </c>
+      <c r="I62">
+        <v>1870</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0.25</v>
+      </c>
+      <c r="L62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M62">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="N62">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62" s="9">
+        <v>49</v>
+      </c>
+      <c r="W62" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="X62" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="Y62" s="2">
+        <f t="shared" si="6"/>
+        <v>58.8</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" si="7"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="8"/>
+        <v>58.8</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="9"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AD62" s="8">
+        <f t="shared" si="10"/>
+        <v>107.28</v>
+      </c>
       <c r="AE62" s="8"/>
-      <c r="AF62" s="2"/>
+      <c r="AF62" s="2">
+        <f t="shared" si="11"/>
+        <v>77.400000000000006</v>
+      </c>
     </row>
-    <row r="63" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="8"/>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="4">
+        <v>25</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="4">
+        <v>500</v>
+      </c>
+      <c r="G63" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L63" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M63" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O63" s="4">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4">
+        <v>0</v>
+      </c>
+      <c r="T63" s="4">
+        <v>0</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0</v>
+      </c>
+      <c r="V63" s="6">
+        <v>0</v>
+      </c>
+      <c r="W63" s="6">
+        <v>0</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE63" s="8"/>
-      <c r="AF63" s="2"/>
+      <c r="AF63" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="8"/>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="4">
+        <v>25</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="4">
+        <v>500</v>
+      </c>
+      <c r="G64" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L64" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M64" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4">
+        <v>0</v>
+      </c>
+      <c r="T64" s="4">
+        <v>0</v>
+      </c>
+      <c r="U64" s="4">
+        <v>0</v>
+      </c>
+      <c r="V64" s="6">
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <v>0</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="AE64" s="8"/>
-      <c r="AF64" s="2"/>
+      <c r="AF64" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G65" s="1"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="8"/>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H65">
+        <v>1576</v>
+      </c>
+      <c r="I65">
+        <v>1870</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.26</v>
+      </c>
+      <c r="L65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M65">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N65">
+        <v>0.04</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" s="12">
+        <f t="shared" ref="U65" si="21">5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V65" s="9">
+        <v>24</v>
+      </c>
+      <c r="W65" s="9">
+        <v>10</v>
+      </c>
+      <c r="X65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y65" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C65)),V65+X65*V65,IF(A64&lt;A65,V65-X66*V66/2,IF(A65&lt;A66,V65-(X64*V64)/2,V65-(X66*V66+X64*V64)/2))),0)</f>
+        <v>28.875</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="7"/>
+        <v>11.3</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="8"/>
+        <v>14.4375</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="9"/>
+        <v>25.737500000000001</v>
+      </c>
+      <c r="AD65" s="8">
+        <f t="shared" si="10"/>
+        <v>55.931250000000006</v>
+      </c>
       <c r="AE65" s="8"/>
-      <c r="AF65" s="2"/>
+      <c r="AF65" s="2">
+        <f t="shared" si="11"/>
+        <v>40.174999999999997</v>
+      </c>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G66" s="1"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="8"/>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>500</v>
+      </c>
+      <c r="G66" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H66">
+        <v>1576</v>
+      </c>
+      <c r="I66">
+        <v>1870</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0.25</v>
+      </c>
+      <c r="L66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M66">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="N66">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" s="12">
+        <f>PI()*16^2/4*0.000001</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="Q66">
+        <v>0.04</v>
+      </c>
+      <c r="R66" s="12">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="W66" s="9">
+        <v>26</v>
+      </c>
+      <c r="X66" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="Y66" s="2">
+        <f t="shared" si="6"/>
+        <v>87.75</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB66" s="2">
+        <f t="shared" si="8"/>
+        <v>43.875</v>
+      </c>
+      <c r="AC66" s="2">
+        <f t="shared" si="9"/>
+        <v>67.275000000000006</v>
+      </c>
+      <c r="AD66" s="8">
+        <f t="shared" si="10"/>
+        <v>153.5625</v>
+      </c>
       <c r="AE66" s="8"/>
-      <c r="AF66" s="2"/>
+      <c r="AF66" s="2">
+        <f t="shared" si="11"/>
+        <v>111.15</v>
+      </c>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G67" s="1"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="8"/>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>500</v>
+      </c>
+      <c r="G67" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H67">
+        <v>1576</v>
+      </c>
+      <c r="I67">
+        <v>1870</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M67">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N67">
+        <v>0.04</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67" s="9">
+        <v>35</v>
+      </c>
+      <c r="W67" s="9">
+        <v>13</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y67" s="2">
+        <f t="shared" si="6"/>
+        <v>39.875</v>
+      </c>
+      <c r="Z67" s="2">
+        <f t="shared" si="7"/>
+        <v>14.3</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AB67" s="2">
+        <f t="shared" si="8"/>
+        <v>19.9375</v>
+      </c>
+      <c r="AC67" s="2">
+        <f t="shared" si="9"/>
+        <v>34.237499999999997</v>
+      </c>
+      <c r="AD67" s="8">
+        <f t="shared" si="10"/>
+        <v>75.28125</v>
+      </c>
       <c r="AE67" s="8"/>
-      <c r="AF67" s="2"/>
+      <c r="AF67" s="2">
+        <f t="shared" si="11"/>
+        <v>54.174999999999997</v>
+      </c>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G68" s="1"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
@@ -2651,7 +8061,7 @@
       <c r="AE68" s="8"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G69" s="1"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
@@ -2665,7 +8075,7 @@
       <c r="AE69" s="8"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G70" s="1"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
@@ -2679,7 +8089,7 @@
       <c r="AE70" s="8"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="7"/>
@@ -2691,7 +8101,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="7"/>
@@ -2703,7 +8113,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -2715,7 +8125,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="X74" s="7"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -2725,7 +8135,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AB75" s="9"/>
@@ -2736,9 +8146,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X2:X6 X8:X31 X33:X43 X45:X55 X57:X59 X61:X62 X65:X74">
+  <conditionalFormatting sqref="X3:X6 X9:X19 X21:X31 X33:X43 X45:X55 X57:X59 X61:X62 X65:X74">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A2="Travée"</formula>
+      <formula>$A3="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculs/PH4/DataBase_PH4_FileA_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_V6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{B6EAA742-0D34-4156-A07B-181580B7D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD27E926-9C6F-4923-83F2-2A759F9F2E6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E887ACA9-F648-4400-AF41-D80E2E84FD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -718,7 +718,6 @@
     <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,10 +783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,14 +1104,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA63" sqref="AA63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1214,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1315,7 +1310,7 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A67" si="1">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
@@ -1421,7 +1416,7 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1468,7 +1463,7 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4">
         <f>PI()*14^2/4*0.000001</f>
         <v>1.5393804002589983E-4</v>
       </c>
@@ -1527,7 +1522,7 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1633,7 +1628,7 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1738,7 +1733,7 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1838,7 +1833,7 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1940,7 +1935,7 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2046,7 +2041,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2093,7 +2088,7 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10">
         <f>PI()*14^2/4*0.000001</f>
         <v>1.5393804002589983E-4</v>
       </c>
@@ -2152,7 +2147,7 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2258,7 +2253,7 @@
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2364,7 +2359,7 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2469,7 +2464,7 @@
       </c>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2574,7 +2569,7 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2680,7 +2675,7 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2785,7 +2780,7 @@
       </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2892,7 +2887,7 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2998,7 +2993,7 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3104,7 +3099,7 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3201,7 +3196,7 @@
       </c>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3305,7 +3300,7 @@
       </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3410,7 +3405,7 @@
       </c>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3515,7 +3510,7 @@
       </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3620,7 +3615,7 @@
       </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3724,7 +3719,7 @@
       </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3829,7 +3824,7 @@
       </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3933,7 +3928,7 @@
       </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4037,7 +4032,7 @@
         <v>79.875</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4141,7 +4136,7 @@
         <v>70.3125</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4245,7 +4240,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4348,7 +4343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4444,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4520,34 +4515,34 @@
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="6"/>
-        <v>21.625</v>
+        <v>19</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="7"/>
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="AA33" s="3">
         <v>0.5</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="8"/>
-        <v>10.8125</v>
+        <v>9.5</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="9"/>
-        <v>16.5625</v>
+        <v>14.5</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="10"/>
-        <v>37.818750000000001</v>
+        <v>33.150000000000006</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="2">
         <f t="shared" si="11"/>
-        <v>27.375</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4620,38 +4615,38 @@
         <v>30</v>
       </c>
       <c r="X34" s="7">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="6"/>
-        <v>99.75</v>
+        <v>105</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="7"/>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="AA34" s="3">
         <v>0.5</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="8"/>
-        <v>49.875</v>
+        <v>52.5</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="9"/>
-        <v>78.375</v>
+        <v>82.5</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="10"/>
-        <v>177.41250000000002</v>
+        <v>186.75</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="2">
         <f t="shared" si="11"/>
-        <v>128.25</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4728,34 +4723,34 @@
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="6"/>
-        <v>51.95</v>
+        <v>53.975000000000001</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="7"/>
-        <v>18.574999999999999</v>
+        <v>19.475000000000001</v>
       </c>
       <c r="AA35" s="3">
         <v>0.5</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="8"/>
-        <v>25.975000000000001</v>
+        <v>26.987500000000001</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="9"/>
-        <v>44.55</v>
+        <v>46.462500000000006</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="10"/>
-        <v>97.995000000000005</v>
+        <v>102.07875000000001</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="2">
         <f t="shared" si="11"/>
-        <v>70.525000000000006</v>
+        <v>73.45</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4827,39 +4822,39 @@
       <c r="W36" s="9">
         <v>33</v>
       </c>
-      <c r="X36" s="7">
-        <v>-0.05</v>
+      <c r="X36" s="11">
+        <v>-0.15</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="6"/>
-        <v>88.35</v>
+        <v>79.05</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="7"/>
-        <v>31.35</v>
+        <v>28.05</v>
       </c>
       <c r="AA36" s="3">
         <v>0.25</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="8"/>
-        <v>66.262499999999989</v>
+        <v>59.287499999999994</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="9"/>
-        <v>53.4375</v>
+        <v>47.8125</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="10"/>
-        <v>166.29750000000001</v>
+        <v>148.79250000000002</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="2">
         <f t="shared" si="11"/>
-        <v>119.69999999999999</v>
+        <v>107.1</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4936,34 +4931,34 @@
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="6"/>
-        <v>4.3250000000000002</v>
+        <v>8.9749999999999996</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="7"/>
-        <v>7.125</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="AA37" s="3">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="8"/>
-        <v>4.3250000000000002</v>
+        <v>8.9749999999999996</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="9"/>
-        <v>7.125</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="10"/>
-        <v>16.526250000000001</v>
+        <v>25.278750000000002</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="2">
         <f t="shared" si="11"/>
-        <v>11.45</v>
+        <v>17.75</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5066,7 +5061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5143,34 +5138,34 @@
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8.625</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="7"/>
-        <v>6.5</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AA39" s="3">
         <v>0</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8.625</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="10"/>
-        <v>15.15</v>
+        <v>23.71875</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="2">
         <f t="shared" si="11"/>
-        <v>10.5</v>
+        <v>16.675000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5208,8 +5203,9 @@
       <c r="L40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M40">
-        <v>1.0482E-3</v>
+      <c r="M40" s="12">
+        <f>(3*1.68+6*1.131)*0.0001</f>
+        <v>1.1826E-3</v>
       </c>
       <c r="N40">
         <v>0.04</v>
@@ -5242,39 +5238,39 @@
       <c r="W40" s="9">
         <v>31</v>
       </c>
-      <c r="X40" s="7">
-        <v>0</v>
+      <c r="X40" s="11">
+        <v>-0.1</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="6"/>
-        <v>92.5</v>
+        <v>83.25</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>27.9</v>
       </c>
       <c r="AA40" s="3">
         <v>0</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="8"/>
-        <v>92.5</v>
+        <v>83.25</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>27.9</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="10"/>
-        <v>171.375</v>
+        <v>154.23750000000001</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="2">
         <f t="shared" si="11"/>
-        <v>123.5</v>
+        <v>111.15</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5312,8 +5308,9 @@
       <c r="L41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M41">
-        <v>5.6539999999999997E-4</v>
+      <c r="M41" s="12">
+        <f>0.0005654+(0.3+0.2)*1.28*0.0001</f>
+        <v>6.2940000000000001E-4</v>
       </c>
       <c r="N41">
         <v>0.04</v>
@@ -5351,34 +5348,34 @@
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="7"/>
-        <v>16.100000000000001</v>
+        <v>16.8125</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="9"/>
-        <v>16.100000000000001</v>
+        <v>16.8125</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="10"/>
-        <v>83.550000000000011</v>
+        <v>87.487500000000011</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="2">
         <f t="shared" si="11"/>
-        <v>60.1</v>
+        <v>62.9375</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5450,39 +5447,39 @@
       <c r="W42" s="9">
         <v>33.5</v>
       </c>
-      <c r="X42" s="7">
-        <v>0</v>
+      <c r="X42" s="11">
+        <v>0.05</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="7"/>
-        <v>33.5</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="9"/>
-        <v>33.5</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="10"/>
-        <v>185.25</v>
+        <v>194.51249999999999</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="2">
         <f t="shared" si="11"/>
-        <v>133.5</v>
+        <v>140.17500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5558,34 +5555,34 @@
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9.1624999999999996</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9.1624999999999996</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>37.368749999999999</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="2">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>26.662500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5681,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5784,7 +5781,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5888,7 +5885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5992,7 +5989,7 @@
         <v>75.224999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6096,7 +6093,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6200,7 +6197,7 @@
         <v>8.2249999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6303,7 +6300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6407,7 +6404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6510,7 +6507,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6549,6 +6546,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M53">
+        <f>0.0005654</f>
         <v>5.6539999999999997E-4</v>
       </c>
       <c r="N53">
@@ -6614,7 +6612,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6718,7 +6716,7 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6821,7 +6819,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6921,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7025,7 +7023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7072,7 +7070,7 @@
       <c r="O58">
         <v>1</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58">
         <f>PI()*14^2/4*0.000001</f>
         <v>1.5393804002589983E-4</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7233,7 +7231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7333,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7437,7 +7435,7 @@
         <v>28.849999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7540,7 +7538,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7636,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7736,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7840,7 +7838,7 @@
         <v>40.174999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7944,7 +7942,7 @@
         <v>111.15</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8047,7 +8045,7 @@
         <v>54.174999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G68" s="1"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
@@ -8061,7 +8059,7 @@
       <c r="AE68" s="8"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G69" s="1"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
@@ -8075,7 +8073,7 @@
       <c r="AE69" s="8"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="G70" s="1"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
@@ -8089,7 +8087,7 @@
       <c r="AE70" s="8"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="7"/>
@@ -8101,7 +8099,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="7"/>
@@ -8113,7 +8111,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -8125,7 +8123,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X74" s="7"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8135,7 +8133,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AB75" s="9"/>
